--- a/September'21/30.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/30.09.2021/Daily Sales Info Sep'21.xlsx
@@ -483,30 +483,6 @@
           </rPr>
           <t xml:space="preserve">
 Milton 10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Milton 6</t>
         </r>
       </text>
     </comment>
@@ -55883,8 +55859,8 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55896,8 +55872,7 @@
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
@@ -56392,9 +56367,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="20">
-        <v>6</v>
-      </c>
+      <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
@@ -56402,7 +56375,7 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>18241</v>
+        <v>17149</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
@@ -56414,7 +56387,7 @@
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>17796.9375</v>
+        <v>16704.9375</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
@@ -56430,7 +56403,7 @@
       </c>
       <c r="W11" s="64">
         <f t="shared" si="6"/>
-        <v>17715.9375</v>
+        <v>16623.9375</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -57475,7 +57448,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -57487,7 +57460,7 @@
       </c>
       <c r="N28" s="60">
         <f t="shared" si="7"/>
-        <v>516776</v>
+        <v>515684</v>
       </c>
       <c r="O28" s="80">
         <f t="shared" si="7"/>
@@ -57503,7 +57476,7 @@
       </c>
       <c r="R28" s="60">
         <f t="shared" si="7"/>
-        <v>500794.16250000003</v>
+        <v>499702.16250000003</v>
       </c>
       <c r="S28" s="60">
         <f t="shared" si="7"/>
@@ -57523,7 +57496,7 @@
       </c>
       <c r="W28" s="60">
         <f t="shared" si="7"/>
-        <v>497408.16250000003</v>
+        <v>496316.16250000003</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57562,7 +57535,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -57974,7 +57947,7 @@
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
@@ -59152,7 +59125,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>
@@ -59997,7 +59970,7 @@
       </c>
       <c r="K11" s="21">
         <f>'1'!K11+'2'!K11+'3'!K11+'4'!K11+'5'!K11+'6'!K11+'7'!K11+'8'!K11+'9'!K11+'10'!K11+'11'!K11+'12'!K11+'13'!K11+'14'!K11+'15'!K11+'16'!K11+'17'!K11+'18'!K11+'19'!K11+'20'!K11+'21'!K11+'22'!K11+'23'!K11+'24'!K11+'25'!K11+'26'!K11+'27'!K11+'28'!K11+'29'!K11+'30'!K11+'31'!K11</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L11" s="21">
         <f>'1'!L11+'2'!L11+'3'!L11+'4'!L11+'5'!L11+'6'!L11+'7'!L11+'8'!L11+'9'!L11+'10'!L11+'11'!L11+'12'!L11+'13'!L11+'14'!L11+'15'!L11+'16'!L11+'17'!L11+'18'!L11+'19'!L11+'20'!L11+'21'!L11+'22'!L11+'23'!L11+'24'!L11+'25'!L11+'26'!L11+'27'!L11+'28'!L11+'29'!L11+'30'!L11+'31'!L11</f>
@@ -60009,7 +59982,7 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>306510</v>
+        <v>305418</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
@@ -60022,7 +59995,7 @@
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>297546.07</v>
+        <v>296454.07</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
@@ -61285,7 +61258,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="6"/>
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="6"/>
@@ -61297,7 +61270,7 @@
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>7762333</v>
+        <v>7761241</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
@@ -61313,7 +61286,7 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>7520839.8650000002</v>
+        <v>7519747.8650000002</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
@@ -61360,7 +61333,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="7"/>
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="7"/>

--- a/September'21/30.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/30.09.2021/Daily Sales Info Sep'21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="3" activeTab="29"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="3" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -55858,9 +55858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61578,8 +61578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/September'21/30.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/30.09.2021/Daily Sales Info Sep'21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="3" activeTab="32"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="3" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -1532,7 +1532,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="91">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -55858,9 +55858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56111,8 +56111,8 @@
       <c r="B7" s="20">
         <v>1908446134</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>23</v>
+      <c r="C7" s="20">
+        <v>10328</v>
       </c>
       <c r="D7" s="21">
         <v>10328</v>
@@ -56171,8 +56171,8 @@
       <c r="B8" s="20">
         <v>1908446135</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>32</v>
+      <c r="C8" s="23">
+        <v>6505</v>
       </c>
       <c r="D8" s="29">
         <v>6505</v>
@@ -56231,8 +56231,8 @@
       <c r="B9" s="20">
         <v>1908446136</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>24</v>
+      <c r="C9" s="20">
+        <v>19766</v>
       </c>
       <c r="D9" s="29">
         <v>19766</v>
@@ -56293,8 +56293,8 @@
       <c r="B10" s="20">
         <v>1908446137</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>25</v>
+      <c r="C10" s="20">
+        <v>7000</v>
       </c>
       <c r="D10" s="29">
         <v>7000</v>
@@ -56353,8 +56353,8 @@
       <c r="B11" s="20">
         <v>1908446138</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>26</v>
+      <c r="C11" s="31">
+        <v>14475</v>
       </c>
       <c r="D11" s="29">
         <v>14475</v>
@@ -56413,8 +56413,8 @@
       <c r="B12" s="20">
         <v>1908446139</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>27</v>
+      <c r="C12" s="20">
+        <v>12572</v>
       </c>
       <c r="D12" s="29">
         <v>12572</v>
@@ -56475,8 +56475,8 @@
       <c r="B13" s="20">
         <v>1908446140</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>41</v>
+      <c r="C13" s="20">
+        <v>5103</v>
       </c>
       <c r="D13" s="29">
         <v>5103</v>
@@ -56533,8 +56533,8 @@
       <c r="B14" s="20">
         <v>1908446141</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>28</v>
+      <c r="C14" s="20">
+        <v>40487</v>
       </c>
       <c r="D14" s="29">
         <v>39459</v>
@@ -56599,8 +56599,8 @@
       <c r="B15" s="20">
         <v>1908446142</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>29</v>
+      <c r="C15" s="33">
+        <v>61145</v>
       </c>
       <c r="D15" s="29">
         <v>61145</v>
@@ -56665,8 +56665,8 @@
       <c r="B16" s="20">
         <v>1908446143</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>30</v>
+      <c r="C16" s="20">
+        <v>10867</v>
       </c>
       <c r="D16" s="29">
         <v>10867</v>
@@ -56723,8 +56723,8 @@
       <c r="B17" s="20">
         <v>1908446144</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>31</v>
+      <c r="C17" s="33">
+        <v>16237</v>
       </c>
       <c r="D17" s="29">
         <v>16237</v>
@@ -56787,8 +56787,8 @@
       <c r="B18" s="20">
         <v>1908446145</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>52</v>
+      <c r="C18" s="31">
+        <v>30000</v>
       </c>
       <c r="D18" s="29">
         <v>30000</v>
@@ -56845,8 +56845,8 @@
       <c r="B19" s="20">
         <v>1908446146</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>43</v>
+      <c r="C19" s="20">
+        <v>23183</v>
       </c>
       <c r="D19" s="29">
         <v>23183</v>
@@ -56915,8 +56915,8 @@
       <c r="B20" s="20">
         <v>1908446147</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>44</v>
+      <c r="C20" s="20">
+        <v>3822</v>
       </c>
       <c r="D20" s="29">
         <v>3822</v>
@@ -56973,8 +56973,8 @@
       <c r="B21" s="20">
         <v>1908446148</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>45</v>
+      <c r="C21" s="20">
+        <v>19000</v>
       </c>
       <c r="D21" s="29">
         <v>19000</v>
@@ -57035,8 +57035,8 @@
       <c r="B22" s="20">
         <v>1908446149</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>33</v>
+      <c r="C22" s="34">
+        <v>41228</v>
       </c>
       <c r="D22" s="29">
         <v>41228</v>
@@ -57101,8 +57101,8 @@
       <c r="B23" s="20">
         <v>1908446150</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>34</v>
+      <c r="C23" s="20">
+        <v>15000</v>
       </c>
       <c r="D23" s="35">
         <v>15000</v>
@@ -57159,8 +57159,8 @@
       <c r="B24" s="20">
         <v>1908446151</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>35</v>
+      <c r="C24" s="20">
+        <v>27833</v>
       </c>
       <c r="D24" s="29">
         <v>27833</v>
@@ -57225,8 +57225,8 @@
       <c r="B25" s="20">
         <v>1908446152</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>36</v>
+      <c r="C25" s="20">
+        <v>16516</v>
       </c>
       <c r="D25" s="29">
         <v>16516</v>
@@ -57289,8 +57289,8 @@
       <c r="B26" s="20">
         <v>1908446153</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>46</v>
+      <c r="C26" s="36">
+        <v>8382</v>
       </c>
       <c r="D26" s="29">
         <v>8382</v>
@@ -57351,8 +57351,8 @@
       <c r="B27" s="20">
         <v>1908446154</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>37</v>
+      <c r="C27" s="20">
+        <v>44394</v>
       </c>
       <c r="D27" s="37">
         <v>44394</v>
@@ -61578,8 +61578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
